--- a/mbs-perturbation/nano/randomForest/nano-randomForest-results.xlsx
+++ b/mbs-perturbation/nano/randomForest/nano-randomForest-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9988317757009346</v>
+        <v>0.6290016277807922</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>0.9090909090909091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6249999999999999</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9973172367538565</v>
+        <v>0.9533369506239826</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="D4" t="n">
-        <v>0.975609756097561</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9953051643192488</v>
+        <v>0.945303550973654</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.475</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6187793427230047</v>
+        <v>0.9706844832287974</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7169014084507042</v>
+        <v>0.9717752931551676</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7854522670312145</v>
+        <v>0.8460489510489511</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5552380952380951</v>
+        <v>0.5748538011695906</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6320805808252005</v>
+        <v>0.5970163242989924</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8654269855895498</v>
+        <v>0.8940203811524787</v>
       </c>
     </row>
   </sheetData>
